--- a/Code/OpenCR/ControleDunBras/Qb_a_qbx.xlsx
+++ b/Code/OpenCR/ControleDunBras/Qb_a_qbx.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonmichaud/Documents/GitHub/ArachnUS/Code/OpenCR/ControleDunBras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5BED195-A3F4-4E4C-BB3D-BB5AB1A93528}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B07114A-70FB-C24B-829C-7DAA27995DBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{F888DE6D-70E4-2B46-B93B-FA6C07F89E5B}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{F888DE6D-70E4-2B46-B93B-FA6C07F89E5B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="qb_qbx" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,12 +32,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="4">
   <si>
     <t>qb</t>
   </si>
   <si>
     <t>qbx</t>
+  </si>
+  <si>
+    <t>qv</t>
+  </si>
+  <si>
+    <t>qbx diff</t>
   </si>
 </sst>
 </file>
@@ -253,7 +260,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>qb_qbx!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -322,7 +329,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>qb_qbx!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -583,7 +590,2452 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>dqbx</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> pour qv quand qb est 130 +- 7.25</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4.0699999999999932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5799999999999983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0000000000005116E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.40000000000000568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.78000000000000114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.8499999999999943</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.210000000000008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.5799999999999983</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.9699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.3700000000000045</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.8100000000000023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.2900000000000063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35D4-A243-A14B-F32451E8555F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1218780576"/>
+        <c:axId val="1233853152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1218780576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1233853152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1233853152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1218780576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>dqbx pour qv quand qb est 100</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> +- 7.25</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.7800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0400000000000063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68000000000000682</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33000000000001251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.0000000000001137E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.39999999999999147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.78999999999999204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1899999999999977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.6299999999999955</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.1099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.6299999999999955</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.2199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.8900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.6799999999999926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B45-1B41-AA97-6B28A29AD65E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1217531824"/>
+        <c:axId val="1237388896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1217531824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1237388896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1237388896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1217531824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>dqbx pour qv quand qb est 80 +- 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4200000000000017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62999999999999545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18999999999999773</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.28999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.82999999999999829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.0700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.8299999999999983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3303-AD43-8B53-6CB97C732D89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1239018416"/>
+        <c:axId val="1238785248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1239018416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1238785248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1238785248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1239018416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>dqbx pour qv quand qb est</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 115 +- 7.25</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$2:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$O$2:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.9200000000000017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3100000000000023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89999999999999147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51999999999999602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15999999999999659</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.20000000000000284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.54999999999999716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.9100000000000108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.6700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.0700000000000074</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.5100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.9900000000000091</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.5100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.1000000000000085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A62E-7F4C-9A04-68C0CCD446CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1245681680"/>
+        <c:axId val="1239074416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1245681680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1239074416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1239074416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245681680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>qbx pour qv quand qb est 145</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$2:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$S$2:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3100000000000023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39999999999997726</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.30000000000001137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.80000000000001137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2300000000000182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.6700000000000159</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.0500000000000114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.4100000000000108</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.7700000000000102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.1200000000000045</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.4800000000000182</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.8500000000000085</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.2400000000000091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3F1-1146-A785-21A34C924155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1253457920"/>
+        <c:axId val="1256802592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1253457920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1256802592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1256802592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1253457920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1139,20 +3591,2600 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1180,12 +6212,257 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F66E788E-4969-154A-8059-11C2A46485F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E146357-C373-6941-A6A6-326E8A65E808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A63122AD-9911-BE4A-92D4-1368060088FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11311EF2-55A0-AF46-AD69-D35962F6A4DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E3FDD9-B3A8-434C-AE09-5574B2309B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29500FAE-6367-1F4D-A35F-6ECE4DF47112}" name="Table1" displayName="Table1" ref="A1:B21" totalsRowShown="0">
   <autoFilter ref="A1:B21" xr:uid="{F69D16E8-5B26-5744-A432-1B12D2B8C392}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C2BE1583-3669-B644-82CB-FC9F16C3D132}" name="qb"/>
     <tableColumn id="2" xr3:uid="{C1A953EE-3B20-BE4A-BCB3-B6EDFA0AB557}" name="qbx"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D51B10F8-7BB1-B244-980A-FF000B77DEE7}" name="Table13" displayName="Table13" ref="A1:C19" totalsRowShown="0">
+  <autoFilter ref="A1:C19" xr:uid="{8F4548C5-3C86-4E4F-B8C4-B97855650FBB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4D2B5529-EB21-6944-B979-880BD3D1056F}" name="qv"/>
+    <tableColumn id="2" xr3:uid="{E2C3A7E2-CB16-D446-82C5-15143C1DB0F6}" name="qbx"/>
+    <tableColumn id="3" xr3:uid="{2D5119E3-4F91-3448-B756-137ABF5C313B}" name="qbx diff"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{869CA412-CBAD-4B4B-A0BA-D49F2CD8596F}" name="Table134" displayName="Table134" ref="E1:G17" totalsRowShown="0">
+  <autoFilter ref="E1:G17" xr:uid="{A5838B47-E5A5-4B41-BA22-E14ED9170B14}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F3262630-9604-884D-B09B-F368DAA65769}" name="qv"/>
+    <tableColumn id="2" xr3:uid="{8A90545D-F9EB-C641-969A-71C5D2BC8870}" name="qbx"/>
+    <tableColumn id="3" xr3:uid="{2F272E97-9420-404A-B821-2EAC614011E9}" name="qb"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BFEAB20F-48CB-4644-89DE-22AE8E5701B3}" name="Table1345" displayName="Table1345" ref="I1:K12" totalsRowShown="0">
+  <autoFilter ref="I1:K12" xr:uid="{10C32BB5-1E97-E14F-AB6F-9604D5DCDEBB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8B05CECD-4774-1940-8268-2C7A379EA716}" name="qv"/>
+    <tableColumn id="2" xr3:uid="{7388EE89-AA29-FF45-84DB-5E4065E8657C}" name="qbx"/>
+    <tableColumn id="3" xr3:uid="{9C3EF079-F1F0-4A43-BDE6-C4BE1F56C39C}" name="qb"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BE0C8D13-3DFB-7043-92C3-EF22009F258A}" name="Table136" displayName="Table136" ref="M1:O18" totalsRowShown="0">
+  <autoFilter ref="M1:O18" xr:uid="{91298362-25C2-AC4A-ADA0-A298A7C02A0E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F06F56F6-0982-E140-AB53-7C946309C0AA}" name="qv"/>
+    <tableColumn id="2" xr3:uid="{496C4AFB-3BA7-514E-AF1E-D57807FFC078}" name="qbx"/>
+    <tableColumn id="3" xr3:uid="{0D068F32-2285-A647-9D8E-C32053D9233F}" name="qb"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8469B0E5-9039-1B4D-87E9-1702874F3149}" name="Table1367" displayName="Table1367" ref="Q1:S17" totalsRowShown="0">
+  <autoFilter ref="Q1:S17" xr:uid="{7FE1F59D-4D74-AF4D-BB11-A808EB92E929}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B684A852-1EBE-BF4D-BD11-82C8CA6FB05B}" name="qv"/>
+    <tableColumn id="2" xr3:uid="{47A3D712-5959-744C-8052-4C6B55D86D92}" name="qbx"/>
+    <tableColumn id="3" xr3:uid="{BE9D42BE-CE51-A44E-8B12-B21241675ED8}" name="qb"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1490,8 +6767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E12AD5-C7BA-0848-94CC-2FD3910A16A9}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1690,4 +6967,923 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E101898-6BE9-9345-B5BD-16B0EBEF56FC}">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>-117.6</v>
+      </c>
+      <c r="C2">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>4.0699999999999932</v>
+      </c>
+      <c r="E2">
+        <v>35</v>
+      </c>
+      <c r="F2">
+        <v>-83.13</v>
+      </c>
+      <c r="G2">
+        <f>-81.35 - Table134[[#This Row],[qbx]]</f>
+        <v>1.7800000000000011</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>-60.95</v>
+      </c>
+      <c r="K2">
+        <f>-59.53-Table1345[[#This Row],[qbx]]</f>
+        <v>1.4200000000000017</v>
+      </c>
+      <c r="M2">
+        <v>35</v>
+      </c>
+      <c r="N2">
+        <v>-99.15</v>
+      </c>
+      <c r="O2">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>1.9200000000000017</v>
+      </c>
+      <c r="Q2">
+        <v>25</v>
+      </c>
+      <c r="R2">
+        <v>-135.9</v>
+      </c>
+      <c r="S2">
+        <f>-129.8-Table1367[[#This Row],[qbx]]</f>
+        <v>6.0999999999999943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>A2-5</f>
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>-116.11</v>
+      </c>
+      <c r="C3">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>2.5799999999999983</v>
+      </c>
+      <c r="E3">
+        <f>E2-5</f>
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>-82.75</v>
+      </c>
+      <c r="G3">
+        <f>-81.35 - Table134[[#This Row],[qbx]]</f>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="I3">
+        <f>I2-5</f>
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>-60.56</v>
+      </c>
+      <c r="K3">
+        <f>-59.53-Table1345[[#This Row],[qbx]]</f>
+        <v>1.0300000000000011</v>
+      </c>
+      <c r="M3">
+        <f>M2-5</f>
+        <v>30</v>
+      </c>
+      <c r="N3">
+        <v>-99</v>
+      </c>
+      <c r="O3">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>1.769999999999996</v>
+      </c>
+      <c r="Q3">
+        <f>Q2-5</f>
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>-132.5</v>
+      </c>
+      <c r="S3">
+        <f>-129.8-Table1367[[#This Row],[qbx]]</f>
+        <v>2.6999999999999886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ref="A4:A21" si="0">A3-5</f>
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>-115.2</v>
+      </c>
+      <c r="C4">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>1.6700000000000017</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E18" si="1">E3-5</f>
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>-82.39</v>
+      </c>
+      <c r="G4">
+        <f>-81.35 - Table134[[#This Row],[qbx]]</f>
+        <v>1.0400000000000063</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I16" si="2">I3-5</f>
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>-60.16</v>
+      </c>
+      <c r="K4">
+        <f>-59.53-Table1345[[#This Row],[qbx]]</f>
+        <v>0.62999999999999545</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M18" si="3">M3-5</f>
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>-98.54</v>
+      </c>
+      <c r="O4">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>1.3100000000000023</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q20" si="4">Q3-5</f>
+        <v>15</v>
+      </c>
+      <c r="R4">
+        <v>-131.11000000000001</v>
+      </c>
+      <c r="S4">
+        <f>-129.8-Table1367[[#This Row],[qbx]]</f>
+        <v>1.3100000000000023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>-114.53</v>
+      </c>
+      <c r="C5">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>-82.03</v>
+      </c>
+      <c r="G5">
+        <f>-81.35 - Table134[[#This Row],[qbx]]</f>
+        <v>0.68000000000000682</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>-59.72</v>
+      </c>
+      <c r="K5">
+        <f>-59.53-Table1345[[#This Row],[qbx]]</f>
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>-98.13</v>
+      </c>
+      <c r="O5">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>0.89999999999999147</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>-130.19999999999999</v>
+      </c>
+      <c r="S5">
+        <f>-129.8-Table1367[[#This Row],[qbx]]</f>
+        <v>0.39999999999997726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>-114</v>
+      </c>
+      <c r="C6">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>-81.680000000000007</v>
+      </c>
+      <c r="G6">
+        <f>-81.35 - Table134[[#This Row],[qbx]]</f>
+        <v>0.33000000000001251</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>-59.24</v>
+      </c>
+      <c r="K6">
+        <f>-59.53-Table1345[[#This Row],[qbx]]</f>
+        <v>-0.28999999999999915</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>-97.75</v>
+      </c>
+      <c r="O6">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>0.51999999999999602</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>-129.5</v>
+      </c>
+      <c r="S6">
+        <f>-129.8-Table1367[[#This Row],[qbx]]</f>
+        <v>-0.30000000000001137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>-113.54</v>
+      </c>
+      <c r="C7">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>1.0000000000005116E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>-81.319999999999993</v>
+      </c>
+      <c r="G7">
+        <f>-81.35 - Table134[[#This Row],[qbx]]</f>
+        <v>-3.0000000000001137E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>-58.7</v>
+      </c>
+      <c r="K7">
+        <f>-59.53-Table1345[[#This Row],[qbx]]</f>
+        <v>-0.82999999999999829</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>-97.39</v>
+      </c>
+      <c r="O7">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>-129</v>
+      </c>
+      <c r="S7">
+        <f>-129.8-Table1367[[#This Row],[qbx]]</f>
+        <v>-0.80000000000001137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>-113.13</v>
+      </c>
+      <c r="C8">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>-0.40000000000000568</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>-80.95</v>
+      </c>
+      <c r="G8">
+        <f>-81.35 - Table134[[#This Row],[qbx]]</f>
+        <v>-0.39999999999999147</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="J8">
+        <v>-58.13</v>
+      </c>
+      <c r="K8">
+        <f>-59.53-Table1345[[#This Row],[qbx]]</f>
+        <v>-1.3999999999999986</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>-97.03</v>
+      </c>
+      <c r="O8">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="R8">
+        <v>-128.57</v>
+      </c>
+      <c r="S8">
+        <f>-129.8-Table1367[[#This Row],[qbx]]</f>
+        <v>-1.2300000000000182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>-112.75</v>
+      </c>
+      <c r="C9">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>-0.78000000000000114</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>-80.56</v>
+      </c>
+      <c r="G9">
+        <f>-81.35 - Table134[[#This Row],[qbx]]</f>
+        <v>-0.78999999999999204</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="J9">
+        <v>-57.46</v>
+      </c>
+      <c r="K9">
+        <f>-59.53-Table1345[[#This Row],[qbx]]</f>
+        <v>-2.0700000000000003</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>-96.68</v>
+      </c>
+      <c r="O9">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>-0.54999999999999716</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="R9">
+        <v>-128.13</v>
+      </c>
+      <c r="S9">
+        <f>-129.8-Table1367[[#This Row],[qbx]]</f>
+        <v>-1.6700000000000159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="B10">
+        <v>-112.39</v>
+      </c>
+      <c r="C10">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>-1.1400000000000006</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F10">
+        <v>-80.16</v>
+      </c>
+      <c r="G10">
+        <f>-81.35 - Table134[[#This Row],[qbx]]</f>
+        <v>-1.1899999999999977</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="J10">
+        <v>-56.67</v>
+      </c>
+      <c r="K10">
+        <f>-59.53-Table1345[[#This Row],[qbx]]</f>
+        <v>-2.8599999999999994</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="N10">
+        <v>-96.32</v>
+      </c>
+      <c r="O10">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>-0.9100000000000108</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="R10">
+        <v>-127.75</v>
+      </c>
+      <c r="S10">
+        <f>-129.8-Table1367[[#This Row],[qbx]]</f>
+        <v>-2.0500000000000114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="B11">
+        <v>-112.03</v>
+      </c>
+      <c r="C11">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>-1.5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="F11">
+        <v>-79.72</v>
+      </c>
+      <c r="G11">
+        <f>-81.35 - Table134[[#This Row],[qbx]]</f>
+        <v>-1.6299999999999955</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="J11">
+        <v>-55.7</v>
+      </c>
+      <c r="K11">
+        <f>-59.53-Table1345[[#This Row],[qbx]]</f>
+        <v>-3.8299999999999983</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="N11">
+        <v>-95.95</v>
+      </c>
+      <c r="O11">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>-1.2800000000000011</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="R11">
+        <v>-127.39</v>
+      </c>
+      <c r="S11">
+        <f>-129.8-Table1367[[#This Row],[qbx]]</f>
+        <v>-2.4100000000000108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="B12">
+        <v>-111.68</v>
+      </c>
+      <c r="C12">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>-1.8499999999999943</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="F12">
+        <v>-79.239999999999995</v>
+      </c>
+      <c r="G12">
+        <f>-81.35 - Table134[[#This Row],[qbx]]</f>
+        <v>-2.1099999999999994</v>
+      </c>
+      <c r="K12">
+        <v>80</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>-15</v>
+      </c>
+      <c r="N12">
+        <v>-95.56</v>
+      </c>
+      <c r="O12">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>-1.6700000000000017</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>-25</v>
+      </c>
+      <c r="R12">
+        <v>-127.03</v>
+      </c>
+      <c r="S12">
+        <f>-129.8-Table1367[[#This Row],[qbx]]</f>
+        <v>-2.7700000000000102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="B13">
+        <v>-111.32</v>
+      </c>
+      <c r="C13">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>-2.210000000000008</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="F13">
+        <v>-78.72</v>
+      </c>
+      <c r="G13">
+        <f>-81.35 - Table134[[#This Row],[qbx]]</f>
+        <v>-2.6299999999999955</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="N13">
+        <v>-95.16</v>
+      </c>
+      <c r="O13">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>-2.0700000000000074</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="R13">
+        <v>-126.68</v>
+      </c>
+      <c r="S13">
+        <f>-129.8-Table1367[[#This Row],[qbx]]</f>
+        <v>-3.1200000000000045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>-25</v>
+      </c>
+      <c r="B14">
+        <v>-110.95</v>
+      </c>
+      <c r="C14">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>-2.5799999999999983</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-25</v>
+      </c>
+      <c r="F14">
+        <v>-78.13</v>
+      </c>
+      <c r="G14">
+        <f>-81.35 - Table134[[#This Row],[qbx]]</f>
+        <v>-3.2199999999999989</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="N14">
+        <v>-94.72</v>
+      </c>
+      <c r="O14">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>-2.5100000000000051</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>-35</v>
+      </c>
+      <c r="R14">
+        <v>-126.32</v>
+      </c>
+      <c r="S14">
+        <f>-129.8-Table1367[[#This Row],[qbx]]</f>
+        <v>-3.4800000000000182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+      <c r="B15">
+        <v>-110.56</v>
+      </c>
+      <c r="C15">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>-2.9699999999999989</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="F15">
+        <v>-77.459999999999994</v>
+      </c>
+      <c r="G15">
+        <f>-81.35 - Table134[[#This Row],[qbx]]</f>
+        <v>-3.8900000000000006</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>-30</v>
+      </c>
+      <c r="N15">
+        <v>-94.24</v>
+      </c>
+      <c r="O15">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>-2.9900000000000091</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>-40</v>
+      </c>
+      <c r="R15">
+        <v>-125.95</v>
+      </c>
+      <c r="S15">
+        <f>-129.8-Table1367[[#This Row],[qbx]]</f>
+        <v>-3.8500000000000085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+      <c r="B16">
+        <v>-110.16</v>
+      </c>
+      <c r="C16">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>-3.3700000000000045</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-35</v>
+      </c>
+      <c r="F16">
+        <v>-76.67</v>
+      </c>
+      <c r="G16">
+        <f>-81.35 - Table134[[#This Row],[qbx]]</f>
+        <v>-4.6799999999999926</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>-35</v>
+      </c>
+      <c r="N16">
+        <v>-93.72</v>
+      </c>
+      <c r="O16">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>-3.5100000000000051</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>-45</v>
+      </c>
+      <c r="R16">
+        <v>-125.56</v>
+      </c>
+      <c r="S16">
+        <f>-129.8-Table1367[[#This Row],[qbx]]</f>
+        <v>-4.2400000000000091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>-40</v>
+      </c>
+      <c r="B17">
+        <v>-109.72</v>
+      </c>
+      <c r="C17">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>-3.8100000000000023</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="N17">
+        <v>-93.13</v>
+      </c>
+      <c r="O17">
+        <f>-97.23-Table136[[#This Row],[qbx]]</f>
+        <v>-4.1000000000000085</v>
+      </c>
+      <c r="S17">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>-45</v>
+      </c>
+      <c r="B18">
+        <v>-109.24</v>
+      </c>
+      <c r="C18">
+        <f>-113.53 - Table13[[#This Row],[qbx]]</f>
+        <v>-4.2900000000000063</v>
+      </c>
+      <c r="O18">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="5">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Code/OpenCR/ControleDunBras/Qb_a_qbx.xlsx
+++ b/Code/OpenCR/ControleDunBras/Qb_a_qbx.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonmichaud/Documents/GitHub/ArachnUS/Code/OpenCR/ControleDunBras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B07114A-70FB-C24B-829C-7DAA27995DBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F232AA-DAD0-9C45-8CC1-35B51F1D2CEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{F888DE6D-70E4-2B46-B93B-FA6C07F89E5B}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{F888DE6D-70E4-2B46-B93B-FA6C07F89E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="qb_qbx" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -625,6 +625,498 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Qb(qbx)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qb_qbx!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qb_qbx!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-48.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-53.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-59.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-65.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-70.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-75.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-81.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-86.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-92.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-97.23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-102.81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-108.17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-113.53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-118.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-124.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-129.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-135.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-141.04</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-147.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-153.61000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D08A-1749-9E25-F9656AAC2E6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1175947360"/>
+        <c:axId val="1176242720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1175947360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1176242720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1176242720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1175947360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>dqbx</a:t>
             </a:r>
             <a:r>
@@ -1055,7 +1547,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1508,7 +2000,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1927,7 +2419,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2386,7 +2878,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3075,6 +3567,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5656,6 +6188,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6204,6 +7252,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB1D427-5833-604A-B03D-119B5954A2E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6767,8 +7853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E12AD5-C7BA-0848-94CC-2FD3910A16A9}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6800,7 +7886,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A38" si="0">A3+5</f>
+        <f t="shared" ref="A4:A21" si="0">A3+5</f>
         <v>80</v>
       </c>
       <c r="B4">
@@ -6973,7 +8059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E101898-6BE9-9345-B5BD-16B0EBEF56FC}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -7137,7 +8223,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A21" si="0">A3-5</f>
+        <f t="shared" ref="A4:A18" si="0">A3-5</f>
         <v>25</v>
       </c>
       <c r="B4">
@@ -7148,7 +8234,7 @@
         <v>1.6700000000000017</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E18" si="1">E3-5</f>
+        <f t="shared" ref="E4:E16" si="1">E3-5</f>
         <v>25</v>
       </c>
       <c r="F4">
@@ -7159,7 +8245,7 @@
         <v>1.0400000000000063</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I16" si="2">I3-5</f>
+        <f t="shared" ref="I4:I11" si="2">I3-5</f>
         <v>15</v>
       </c>
       <c r="J4">
@@ -7170,7 +8256,7 @@
         <v>0.62999999999999545</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M18" si="3">M3-5</f>
+        <f t="shared" ref="M4:M17" si="3">M3-5</f>
         <v>25</v>
       </c>
       <c r="N4">
@@ -7181,7 +8267,7 @@
         <v>1.3100000000000023</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q20" si="4">Q3-5</f>
+        <f t="shared" ref="Q4:Q16" si="4">Q3-5</f>
         <v>15</v>
       </c>
       <c r="R4">
